--- a/MSE_results_optimized_v2.xlsx
+++ b/MSE_results_optimized_v2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -741,10 +741,10 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>6.907755278982137</v>
+        <v>9.952277716705559</v>
       </c>
       <c r="B22">
-        <v>-5.658434789873532</v>
+        <v>-6.604089700964215</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -753,16 +753,16 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>7.600902459542082</v>
+        <v>9.998797732340453</v>
       </c>
       <c r="B23">
-        <v>-5.946919881070436</v>
+        <v>-6.67222572705986</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -771,16 +771,16 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>8.006367567650246</v>
+        <v>10.04324949491129</v>
       </c>
       <c r="B24">
-        <v>-6.444516671103918</v>
+        <v>-7.02826299547253</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -789,16 +789,16 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>8.294049640102028</v>
+        <v>10.08580910933008</v>
       </c>
       <c r="B25">
-        <v>-6.480447222271804</v>
+        <v>-7.092214265619867</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -807,16 +807,16 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>8.517193191416238</v>
+        <v>10.12663110385034</v>
       </c>
       <c r="B26">
-        <v>-6.481614331772478</v>
+        <v>-6.657735928401705</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -825,16 +825,16 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>8.699514748210191</v>
+        <v>6.907755278982137</v>
       </c>
       <c r="B27">
-        <v>-6.632909258986175</v>
+        <v>-5.978328958101367</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -849,10 +849,10 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>8.85366542803745</v>
+        <v>7.600902459542082</v>
       </c>
       <c r="B28">
-        <v>-6.739272713224081</v>
+        <v>-6.334477119897498</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -867,10 +867,10 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>8.987196820661973</v>
+        <v>8.006367567650246</v>
       </c>
       <c r="B29">
-        <v>-6.854960547524449</v>
+        <v>-6.123178377466363</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -885,10 +885,10 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>9.104979856318357</v>
+        <v>8.294049640102028</v>
       </c>
       <c r="B30">
-        <v>-6.919945979476214</v>
+        <v>-6.595817881649388</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -903,10 +903,10 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>9.210340371976184</v>
+        <v>8.517193191416238</v>
       </c>
       <c r="B31">
-        <v>-7.05893457480308</v>
+        <v>-6.373547319983221</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -921,10 +921,10 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>9.305650551780507</v>
+        <v>8.699514748210191</v>
       </c>
       <c r="B32">
-        <v>-6.803589338517631</v>
+        <v>-6.817745969437953</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -939,10 +939,10 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>9.392661928770137</v>
+        <v>8.85366542803745</v>
       </c>
       <c r="B33">
-        <v>-6.933772113222825</v>
+        <v>-6.824666622450677</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -957,10 +957,10 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>9.472704636443673</v>
+        <v>8.987196820661973</v>
       </c>
       <c r="B34">
-        <v>-7.097168247301453</v>
+        <v>-6.733195085291163</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -975,10 +975,10 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>9.546812608597396</v>
+        <v>9.104979856318357</v>
       </c>
       <c r="B35">
-        <v>-7.026624840010195</v>
+        <v>-6.953272433164602</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -993,10 +993,10 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>9.615805480084347</v>
+        <v>9.210340371976184</v>
       </c>
       <c r="B36">
-        <v>-7.222915106964908</v>
+        <v>-6.937199138573627</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>9.680344001221918</v>
+        <v>9.305650551780507</v>
       </c>
       <c r="B37">
-        <v>-7.479235094403839</v>
+        <v>-6.888030420125594</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>9.740968623038354</v>
+        <v>9.392661928770137</v>
       </c>
       <c r="B38">
-        <v>-7.156431142611441</v>
+        <v>-7.016917080680724</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>9.798127036878302</v>
+        <v>9.472704636443673</v>
       </c>
       <c r="B39">
-        <v>-7.411000395348181</v>
+        <v>-6.94632731056167</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>9.852194258148577</v>
+        <v>9.546812608597396</v>
       </c>
       <c r="B40">
-        <v>-7.306860184007141</v>
+        <v>-7.077859492102424</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>9.903487552536127</v>
+        <v>9.615805480084347</v>
       </c>
       <c r="B41">
-        <v>-7.194759808125636</v>
+        <v>-7.179035627193612</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1101,190 +1101,190 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>6.907755278982137</v>
+        <v>9.680344001221918</v>
       </c>
       <c r="B42">
-        <v>-4.349179683930896</v>
+        <v>-7.269298478418659</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>fourier</t>
+          <t>bspline</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>7.600902459542082</v>
+        <v>9.740968623038354</v>
       </c>
       <c r="B43">
-        <v>-4.807260186894672</v>
+        <v>-7.292837821859415</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>fourier</t>
+          <t>bspline</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>8.006367567650246</v>
+        <v>9.798127036878302</v>
       </c>
       <c r="B44">
-        <v>-4.841280121715619</v>
+        <v>-7.219579248492121</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>fourier</t>
+          <t>bspline</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>8.294049640102028</v>
+        <v>9.852194258148577</v>
       </c>
       <c r="B45">
-        <v>-5.28298915469742</v>
+        <v>-7.117960542161863</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>fourier</t>
+          <t>bspline</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>8.517193191416238</v>
+        <v>9.903487552536127</v>
       </c>
       <c r="B46">
-        <v>-5.27606467878185</v>
+        <v>-7.485027414809577</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>fourier</t>
+          <t>bspline</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>8.699514748210191</v>
+        <v>9.952277716705559</v>
       </c>
       <c r="B47">
-        <v>-5.362565097563471</v>
+        <v>-7.153871242217556</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>fourier</t>
+          <t>bspline</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>8.85366542803745</v>
+        <v>9.998797732340453</v>
       </c>
       <c r="B48">
-        <v>-5.4449165149519</v>
+        <v>-7.285181340453608</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>fourier</t>
+          <t>bspline</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>8.987196820661973</v>
+        <v>10.04324949491129</v>
       </c>
       <c r="B49">
-        <v>-5.484763373834048</v>
+        <v>-7.319583410728304</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>fourier</t>
+          <t>bspline</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>9.104979856318357</v>
+        <v>10.08580910933008</v>
       </c>
       <c r="B50">
-        <v>-5.556415530624935</v>
+        <v>-7.398818095660268</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>fourier</t>
+          <t>bspline</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>9.210340371976184</v>
+        <v>10.12663110385034</v>
       </c>
       <c r="B51">
-        <v>-5.650246103162631</v>
+        <v>-7.340312556720146</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>fourier</t>
+          <t>bspline</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>9.305650551780507</v>
+        <v>6.907755278982137</v>
       </c>
       <c r="B52">
-        <v>-5.646788305510245</v>
+        <v>-4.435443975058889</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>9.392661928770137</v>
+        <v>7.600902459542082</v>
       </c>
       <c r="B53">
-        <v>-5.701710658879637</v>
+        <v>-4.79457945481195</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>9.472704636443673</v>
+        <v>8.006367567650246</v>
       </c>
       <c r="B54">
-        <v>-5.735754427159015</v>
+        <v>-4.923703925913373</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>9.546812608597396</v>
+        <v>8.294049640102028</v>
       </c>
       <c r="B55">
-        <v>-5.845370628293519</v>
+        <v>-5.211640615810407</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1353,10 +1353,10 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>9.615805480084347</v>
+        <v>8.517193191416238</v>
       </c>
       <c r="B56">
-        <v>-5.778871097789844</v>
+        <v>-5.37576985374994</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1371,10 +1371,10 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>9.680344001221918</v>
+        <v>8.699514748210191</v>
       </c>
       <c r="B57">
-        <v>-5.851025178889881</v>
+        <v>-5.344014612631722</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>9.740968623038354</v>
+        <v>8.85366542803745</v>
       </c>
       <c r="B58">
-        <v>-5.931957301925343</v>
+        <v>-5.402422385804555</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1407,10 +1407,10 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>9.798127036878302</v>
+        <v>8.987196820661973</v>
       </c>
       <c r="B59">
-        <v>-5.934869567899574</v>
+        <v>-5.442844017417864</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>9.852194258148577</v>
+        <v>9.104979856318357</v>
       </c>
       <c r="B60">
-        <v>-5.969404535863663</v>
+        <v>-5.562439511509768</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>9.903487552536127</v>
+        <v>9.210340371976184</v>
       </c>
       <c r="B61">
-        <v>-5.910482291272483</v>
+        <v>-5.669341760492096</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>6.907755278982137</v>
+        <v>9.305650551780507</v>
       </c>
       <c r="B62">
-        <v>-4.480454131983886</v>
+        <v>-5.65343792539566</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1473,16 +1473,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>7.600902459542082</v>
+        <v>9.392661928770137</v>
       </c>
       <c r="B63">
-        <v>-4.771715688123037</v>
+        <v>-5.542141244760849</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1491,16 +1491,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>8.006367567650246</v>
+        <v>9.472704636443673</v>
       </c>
       <c r="B64">
-        <v>-4.825163460958901</v>
+        <v>-5.809356474299067</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1509,16 +1509,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>8.294049640102028</v>
+        <v>9.546812608597396</v>
       </c>
       <c r="B65">
-        <v>-4.881964427869836</v>
+        <v>-5.75861269548993</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1527,16 +1527,16 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>8.517193191416238</v>
+        <v>9.615805480084347</v>
       </c>
       <c r="B66">
-        <v>-5.065509428553597</v>
+        <v>-5.831991768997458</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1545,16 +1545,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>8.699514748210191</v>
+        <v>9.680344001221918</v>
       </c>
       <c r="B67">
-        <v>-5.156622802623101</v>
+        <v>-5.882714716507634</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1563,16 +1563,16 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>8.85366542803745</v>
+        <v>9.740968623038354</v>
       </c>
       <c r="B68">
-        <v>-5.205256998799736</v>
+        <v>-5.916647939994164</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1581,16 +1581,16 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>8.987196820661973</v>
+        <v>9.798127036878302</v>
       </c>
       <c r="B69">
-        <v>-5.211123203563993</v>
+        <v>-5.96798982898953</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1599,16 +1599,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>9.104979856318357</v>
+        <v>9.852194258148577</v>
       </c>
       <c r="B70">
-        <v>-5.302277063462366</v>
+        <v>-5.960505357983125</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1617,16 +1617,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>9.210340371976184</v>
+        <v>9.903487552536127</v>
       </c>
       <c r="B71">
-        <v>-5.228126957804268</v>
+        <v>-5.976105840666387</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1635,16 +1635,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>9.305650551780507</v>
+        <v>9.952277716705559</v>
       </c>
       <c r="B72">
-        <v>-5.264125587880786</v>
+        <v>-5.990026189734054</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1653,16 +1653,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>9.392661928770137</v>
+        <v>9.998797732340453</v>
       </c>
       <c r="B73">
-        <v>-5.25511230181708</v>
+        <v>-6.06304130271949</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1671,16 +1671,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>9.472704636443673</v>
+        <v>10.04324949491129</v>
       </c>
       <c r="B74">
-        <v>-5.451709018692578</v>
+        <v>-6.056717966259118</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1689,16 +1689,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>9.546812608597396</v>
+        <v>10.08580910933008</v>
       </c>
       <c r="B75">
-        <v>-5.454074736647038</v>
+        <v>-6.019493624149388</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1707,16 +1707,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>9.615805480084347</v>
+        <v>10.12663110385034</v>
       </c>
       <c r="B76">
-        <v>-5.406052612360805</v>
+        <v>-6.115230298906135</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1725,16 +1725,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>9.680344001221918</v>
+        <v>6.907755278982137</v>
       </c>
       <c r="B77">
-        <v>-5.428690362887294</v>
+        <v>-4.383049426593844</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>9.740968623038354</v>
+        <v>7.600902459542082</v>
       </c>
       <c r="B78">
-        <v>-5.414260955733066</v>
+        <v>-4.634765231075684</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1767,10 +1767,10 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>9.798127036878302</v>
+        <v>8.006367567650246</v>
       </c>
       <c r="B79">
-        <v>-5.46860824929171</v>
+        <v>-5.006484819633513</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1785,10 +1785,10 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>9.852194258148577</v>
+        <v>8.294049640102028</v>
       </c>
       <c r="B80">
-        <v>-5.467824209713251</v>
+        <v>-5.115719602143204</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1803,10 +1803,10 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>9.903487552536127</v>
+        <v>8.517193191416238</v>
       </c>
       <c r="B81">
-        <v>-5.504138613422197</v>
+        <v>-5.061297357425066</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1821,361 +1821,361 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>6.907755278982137</v>
+        <v>8.699514748210191</v>
       </c>
       <c r="B82">
-        <v>-5.435381698616385</v>
+        <v>-5.110487758605927</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>7.600902459542082</v>
+        <v>8.85366542803745</v>
       </c>
       <c r="B83">
-        <v>-5.811964840394077</v>
+        <v>-5.143788857680843</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>8.006367567650246</v>
+        <v>8.987196820661973</v>
       </c>
       <c r="B84">
-        <v>-5.691524226752938</v>
+        <v>-5.126543075562969</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>8.294049640102028</v>
+        <v>9.104979856318357</v>
       </c>
       <c r="B85">
-        <v>-5.844144008137524</v>
+        <v>-5.298239534216165</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>8.517193191416238</v>
+        <v>9.210340371976184</v>
       </c>
       <c r="B86">
-        <v>-6.247001459092864</v>
+        <v>-5.333202769795062</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>8.699514748210191</v>
+        <v>9.305650551780507</v>
       </c>
       <c r="B87">
-        <v>-6.148322847923422</v>
+        <v>-5.364617178535091</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>8.85366542803745</v>
+        <v>9.392661928770137</v>
       </c>
       <c r="B88">
-        <v>-6.03745775200376</v>
+        <v>-5.368278024093623</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>8.987196820661973</v>
+        <v>9.472704636443673</v>
       </c>
       <c r="B89">
-        <v>-6.099198507701741</v>
+        <v>-5.382671290333817</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>9.104979856318357</v>
+        <v>9.546812608597396</v>
       </c>
       <c r="B90">
-        <v>-6.470180567653682</v>
+        <v>-5.436357105899155</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>9.210340371976184</v>
+        <v>9.615805480084347</v>
       </c>
       <c r="B91">
-        <v>-6.880595013696375</v>
+        <v>-5.421391181291444</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>9.305650551780507</v>
+        <v>9.680344001221918</v>
       </c>
       <c r="B92">
-        <v>-6.712465365669109</v>
+        <v>-5.377835724023962</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>9.392661928770137</v>
+        <v>9.740968623038354</v>
       </c>
       <c r="B93">
-        <v>-6.783771337521999</v>
+        <v>-5.546633586112692</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>9.472704636443673</v>
+        <v>9.798127036878302</v>
       </c>
       <c r="B94">
-        <v>-6.7621907076787</v>
+        <v>-5.498117147416147</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>9.546812608597396</v>
+        <v>9.852194258148577</v>
       </c>
       <c r="B95">
-        <v>-6.995556400336857</v>
+        <v>-5.461287268130885</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>9.615805480084347</v>
+        <v>9.903487552536127</v>
       </c>
       <c r="B96">
-        <v>-7.115121528374905</v>
+        <v>-5.546947159100733</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>9.680344001221918</v>
+        <v>9.952277716705559</v>
       </c>
       <c r="B97">
-        <v>-7.073014050958838</v>
+        <v>-5.528040302733566</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>9.740968623038354</v>
+        <v>9.998797732340453</v>
       </c>
       <c r="B98">
-        <v>-7.104808250047483</v>
+        <v>-5.453771755244489</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>9.798127036878302</v>
+        <v>10.04324949491129</v>
       </c>
       <c r="B99">
-        <v>-7.279228776119495</v>
+        <v>-5.593686912704618</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>9.852194258148577</v>
+        <v>10.08580910933008</v>
       </c>
       <c r="B100">
-        <v>-7.017604159589042</v>
+        <v>-5.588443431779567</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>9.903487552536127</v>
+        <v>10.12663110385034</v>
       </c>
       <c r="B101">
-        <v>-7.070947557602222</v>
+        <v>-5.598644516648727</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>legendre</t>
+          <t>fourier</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>horseshoe</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
         <v>6.907755278982137</v>
       </c>
       <c r="B102">
-        <v>-4.640422278303059</v>
+        <v>-5.154341661387648</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
         <v>7.600902459542082</v>
       </c>
       <c r="B103">
-        <v>-4.836583197858156</v>
+        <v>-5.61438345295582</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
         <v>8.006367567650246</v>
       </c>
       <c r="B104">
-        <v>-4.781228136761949</v>
+        <v>-6.102605271721319</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
         <v>8.294049640102028</v>
       </c>
       <c r="B105">
-        <v>-5.137413004437374</v>
+        <v>-6.502612143905401</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
         <v>8.517193191416238</v>
       </c>
       <c r="B106">
-        <v>-5.009062086716298</v>
+        <v>-6.362857417620644</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
         <v>8.699514748210191</v>
       </c>
       <c r="B107">
-        <v>-4.940630547865654</v>
+        <v>-6.126848616560542</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
         <v>8.85366542803745</v>
       </c>
       <c r="B108">
-        <v>-4.947782975439402</v>
+        <v>-6.216616088957811</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
         <v>8.987196820661973</v>
       </c>
       <c r="B109">
-        <v>-5.008847699482243</v>
+        <v>-6.470743915076604</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
         <v>9.104979856318357</v>
       </c>
       <c r="B110">
-        <v>-5.027085280805492</v>
+        <v>-6.751172387868136</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
         <v>9.210340371976184</v>
       </c>
       <c r="B111">
-        <v>-5.010472122751312</v>
+        <v>-6.555003487895787</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
         <v>9.305650551780507</v>
       </c>
       <c r="B112">
-        <v>-4.958483131371105</v>
+        <v>-6.506780147072385</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
         <v>9.392661928770137</v>
       </c>
       <c r="B113">
-        <v>-5.071500495624273</v>
+        <v>-6.767469945676238</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
         <v>9.472704636443673</v>
       </c>
       <c r="B114">
-        <v>-5.048304144060277</v>
+        <v>-6.925554254168892</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
         <v>9.546812608597396</v>
       </c>
       <c r="B115">
-        <v>-5.059090468998701</v>
+        <v>-6.793063039060827</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
         <v>9.615805480084347</v>
       </c>
       <c r="B116">
-        <v>-5.121484940917701</v>
+        <v>-7.127359975363904</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
         <v>9.680344001221918</v>
       </c>
       <c r="B117">
-        <v>-5.079875902899169</v>
+        <v>-6.840490804722791</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
@@ -2472,7 +2472,7 @@
         <v>9.740968623038354</v>
       </c>
       <c r="B118">
-        <v>-4.993435141204462</v>
+        <v>-7.036828413542425</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
         <v>9.798127036878302</v>
       </c>
       <c r="B119">
-        <v>-5.019608448484083</v>
+        <v>-7.01484598726713</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
         <v>9.852194258148577</v>
       </c>
       <c r="B120">
-        <v>-5.031267461441347</v>
+        <v>-7.106850565662773</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>horseshoe</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
         <v>9.903487552536127</v>
       </c>
       <c r="B121">
-        <v>-5.041254765464676</v>
+        <v>-6.875002769405495</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2534,6 +2534,546 @@
         </is>
       </c>
       <c r="D121" t="inlineStr">
+        <is>
+          <t>horseshoe</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>9.952277716705559</v>
+      </c>
+      <c r="B122">
+        <v>-7.149075905936418</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>horseshoe</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>9.998797732340453</v>
+      </c>
+      <c r="B123">
+        <v>-7.149133578125122</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>horseshoe</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>10.04324949491129</v>
+      </c>
+      <c r="B124">
+        <v>-7.189798695779991</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>horseshoe</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>10.08580910933008</v>
+      </c>
+      <c r="B125">
+        <v>-7.196744573538595</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>horseshoe</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>10.12663110385034</v>
+      </c>
+      <c r="B126">
+        <v>-7.099822711676723</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>horseshoe</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>6.907755278982137</v>
+      </c>
+      <c r="B127">
+        <v>-4.838002403181112</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>7.600902459542082</v>
+      </c>
+      <c r="B128">
+        <v>-4.944209069978224</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>8.006367567650246</v>
+      </c>
+      <c r="B129">
+        <v>-4.822093624684753</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>8.294049640102028</v>
+      </c>
+      <c r="B130">
+        <v>-5.154774187270204</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>8.517193191416238</v>
+      </c>
+      <c r="B131">
+        <v>-4.773695129684349</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>8.699514748210191</v>
+      </c>
+      <c r="B132">
+        <v>-5.042377905007933</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>8.85366542803745</v>
+      </c>
+      <c r="B133">
+        <v>-4.954053760311797</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>8.987196820661973</v>
+      </c>
+      <c r="B134">
+        <v>-5.034839030873079</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>9.104979856318357</v>
+      </c>
+      <c r="B135">
+        <v>-4.977369136302821</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>9.210340371976184</v>
+      </c>
+      <c r="B136">
+        <v>-4.997344314223252</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>9.305650551780507</v>
+      </c>
+      <c r="B137">
+        <v>-5.054786537144992</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>9.392661928770137</v>
+      </c>
+      <c r="B138">
+        <v>-5.003033618403537</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>9.472704636443673</v>
+      </c>
+      <c r="B139">
+        <v>-5.023030000499517</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>9.546812608597396</v>
+      </c>
+      <c r="B140">
+        <v>-5.038032033567115</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>9.615805480084347</v>
+      </c>
+      <c r="B141">
+        <v>-5.04767214925746</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>9.680344001221918</v>
+      </c>
+      <c r="B142">
+        <v>-5.066265026118248</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>9.740968623038354</v>
+      </c>
+      <c r="B143">
+        <v>-5.068025068693432</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>9.798127036878302</v>
+      </c>
+      <c r="B144">
+        <v>-5.061956116311539</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>9.852194258148577</v>
+      </c>
+      <c r="B145">
+        <v>-4.997356991597468</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>9.903487552536127</v>
+      </c>
+      <c r="B146">
+        <v>-5.07293322789002</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>9.952277716705559</v>
+      </c>
+      <c r="B147">
+        <v>-5.005685730544248</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>9.998797732340453</v>
+      </c>
+      <c r="B148">
+        <v>-5.029354938585375</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>10.04324949491129</v>
+      </c>
+      <c r="B149">
+        <v>-5.050763320787421</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>10.08580910933008</v>
+      </c>
+      <c r="B150">
+        <v>-5.08197101835767</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>10.12663110385034</v>
+      </c>
+      <c r="B151">
+        <v>-5.017219626351236</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>legendre</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
